--- a/data/output/result.xlsx
+++ b/data/output/result.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shotaro/GitHub/utmd/serial/data/output/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA0DC54-C145-9847-94F6-EE938D94D305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="220" yWindow="500" windowWidth="23520" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="student" sheetId="1" r:id="rId1"/>
     <sheet name="school" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1064,8 +1070,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1128,6 +1134,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1174,7 +1188,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1206,9 +1220,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1240,6 +1272,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1415,14 +1465,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A151" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1439,7 +1489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1456,7 +1506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1473,7 +1523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1490,7 +1540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1507,7 +1557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1524,7 +1574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1541,7 +1591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1558,7 +1608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1575,7 +1625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1592,7 +1642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1609,7 +1659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1626,7 +1676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1643,7 +1693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1660,7 +1710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1677,7 +1727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1694,7 +1744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1711,7 +1761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1728,7 +1778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1745,7 +1795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1762,7 +1812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1779,7 +1829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1796,7 +1846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1813,7 +1863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1830,7 +1880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1847,7 +1897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1864,7 +1914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1881,7 +1931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1898,7 +1948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1915,7 +1965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1932,7 +1982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1949,7 +1999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1966,7 +2016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1983,7 +2033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2000,7 +2050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2017,7 +2067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2034,7 +2084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2051,7 +2101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2068,7 +2118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2085,7 +2135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2102,7 +2152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2119,7 +2169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2136,7 +2186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2153,7 +2203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2170,7 +2220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2187,7 +2237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2204,7 +2254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2221,7 +2271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2238,7 +2288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2255,7 +2305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2272,7 +2322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2289,7 +2339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2306,7 +2356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2323,7 +2373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2340,7 +2390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2357,7 +2407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2374,7 +2424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2391,7 +2441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2408,7 +2458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2425,7 +2475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2442,7 +2492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2459,7 +2509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2467,7 +2517,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2484,7 +2534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2501,7 +2551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2518,7 +2568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2535,7 +2585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2552,7 +2602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2569,7 +2619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2586,7 +2636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2603,7 +2653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2620,7 +2670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2637,7 +2687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2654,7 +2704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2671,7 +2721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2688,7 +2738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2705,7 +2755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2722,7 +2772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2730,7 +2780,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2738,7 +2788,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2755,7 +2805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2772,7 +2822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2789,7 +2839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2806,7 +2856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2823,7 +2873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2831,7 +2881,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2839,7 +2889,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2856,7 +2906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2873,7 +2923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2890,7 +2940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2907,7 +2957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2924,7 +2974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2941,7 +2991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2958,7 +3008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2975,7 +3025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2983,7 +3033,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3000,7 +3050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3017,7 +3067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3034,7 +3084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3051,7 +3101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3068,7 +3118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3085,7 +3135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3102,7 +3152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3119,7 +3169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3136,7 +3186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3153,7 +3203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3170,7 +3220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3187,7 +3237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3204,7 +3254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3221,7 +3271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3238,7 +3288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3255,7 +3305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3272,7 +3322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3289,7 +3339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3306,7 +3356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3314,7 +3364,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3331,7 +3381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3348,7 +3398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3365,7 +3415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3382,7 +3432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3399,7 +3449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3407,7 +3457,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3424,7 +3474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3441,7 +3491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3458,7 +3508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3475,7 +3525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3483,7 +3533,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3491,7 +3541,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3508,7 +3558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3525,7 +3575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3542,7 +3592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3559,7 +3609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3576,7 +3626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3593,7 +3643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3610,7 +3660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3627,7 +3677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3644,7 +3694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3652,7 +3702,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3669,7 +3719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
@@ -3686,7 +3736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
@@ -3694,7 +3744,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
@@ -3702,7 +3752,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
@@ -3719,7 +3769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
@@ -3736,7 +3786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
@@ -3744,7 +3794,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
@@ -3761,7 +3811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
@@ -3778,7 +3828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
@@ -3786,7 +3836,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
@@ -3803,7 +3853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
@@ -3820,7 +3870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
@@ -3837,7 +3887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
@@ -3854,7 +3904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
@@ -3862,7 +3912,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
@@ -3879,7 +3929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
@@ -3887,7 +3937,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
@@ -3904,7 +3954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
@@ -3921,7 +3971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
@@ -3929,7 +3979,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
@@ -3946,7 +3996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
@@ -3963,7 +4013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
@@ -3980,7 +4030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
@@ -3997,7 +4047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
@@ -4014,7 +4064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
@@ -4031,7 +4081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
@@ -4048,7 +4098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
@@ -4056,7 +4106,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
@@ -4064,7 +4114,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
@@ -4081,7 +4131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
@@ -4098,7 +4148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
@@ -4106,7 +4156,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
@@ -4114,7 +4164,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
@@ -4122,7 +4172,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
@@ -4145,14 +4195,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>223</v>
       </c>
@@ -4169,7 +4224,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>228</v>
       </c>
@@ -4186,7 +4241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>166</v>
       </c>
@@ -4203,7 +4258,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>229</v>
       </c>
@@ -4220,7 +4275,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>195</v>
       </c>
@@ -4240,7 +4295,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>230</v>
       </c>
@@ -4260,7 +4315,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>231</v>
       </c>
@@ -4277,7 +4332,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>204</v>
       </c>
@@ -4297,7 +4352,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>232</v>
       </c>
@@ -4314,7 +4369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>180</v>
       </c>
@@ -4334,7 +4389,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>233</v>
       </c>
@@ -4351,7 +4406,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>206</v>
       </c>
@@ -4368,7 +4423,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>234</v>
       </c>
@@ -4388,7 +4443,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>235</v>
       </c>
@@ -4408,7 +4463,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>236</v>
       </c>
@@ -4425,7 +4480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>174</v>
       </c>
@@ -4442,7 +4497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>237</v>
       </c>
@@ -4462,7 +4517,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>238</v>
       </c>
@@ -4479,7 +4534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>239</v>
       </c>
@@ -4499,7 +4554,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>240</v>
       </c>
@@ -4516,7 +4571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>167</v>
       </c>
@@ -4533,7 +4588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>212</v>
       </c>
@@ -4553,7 +4608,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>241</v>
       </c>
@@ -4570,7 +4625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>242</v>
       </c>
@@ -4590,7 +4645,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>243</v>
       </c>
@@ -4610,7 +4665,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>187</v>
       </c>
@@ -4630,7 +4685,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>244</v>
       </c>
@@ -4650,7 +4705,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>245</v>
       </c>
@@ -4670,7 +4725,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>218</v>
       </c>
@@ -4690,7 +4745,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>177</v>
       </c>
@@ -4707,7 +4762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>208</v>
       </c>
@@ -4724,7 +4779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>189</v>
       </c>
@@ -4741,7 +4796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>193</v>
       </c>
@@ -4761,7 +4816,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>168</v>
       </c>
@@ -4778,7 +4833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>198</v>
       </c>
@@ -4798,7 +4853,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>202</v>
       </c>
@@ -4815,7 +4870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>196</v>
       </c>
@@ -4835,7 +4890,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>178</v>
       </c>
@@ -4855,7 +4910,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>188</v>
       </c>
@@ -4872,7 +4927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>169</v>
       </c>
@@ -4892,7 +4947,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>173</v>
       </c>
@@ -4912,7 +4967,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>179</v>
       </c>
@@ -4929,7 +4984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>246</v>
       </c>
@@ -4946,7 +5001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>213</v>
       </c>
@@ -4966,7 +5021,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>201</v>
       </c>
@@ -4986,7 +5041,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>203</v>
       </c>
@@ -5006,7 +5061,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>214</v>
       </c>
@@ -5023,7 +5078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>205</v>
       </c>
@@ -5043,7 +5098,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>247</v>
       </c>
@@ -5063,7 +5118,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>248</v>
       </c>
@@ -5083,7 +5138,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>207</v>
       </c>
@@ -5100,7 +5155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>181</v>
       </c>
@@ -5120,7 +5175,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>217</v>
       </c>
@@ -5140,7 +5195,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>249</v>
       </c>
@@ -5157,7 +5212,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>182</v>
       </c>
@@ -5177,7 +5232,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>172</v>
       </c>
@@ -5194,7 +5249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>171</v>
       </c>
@@ -5214,7 +5269,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>186</v>
       </c>
@@ -5234,7 +5289,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>250</v>
       </c>
@@ -5254,7 +5309,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>251</v>
       </c>
@@ -5271,7 +5326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>200</v>
       </c>
@@ -5291,7 +5346,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>191</v>
       </c>
@@ -5308,7 +5363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>252</v>
       </c>
@@ -5328,7 +5383,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>211</v>
       </c>
@@ -5348,7 +5403,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>253</v>
       </c>
@@ -5368,7 +5423,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>190</v>
       </c>
@@ -5388,7 +5443,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>254</v>
       </c>
@@ -5405,7 +5460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>255</v>
       </c>
@@ -5425,7 +5480,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>192</v>
       </c>
@@ -5445,7 +5500,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>170</v>
       </c>
@@ -5465,7 +5520,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>209</v>
       </c>
@@ -5485,7 +5540,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>175</v>
       </c>
@@ -5505,7 +5560,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>185</v>
       </c>
@@ -5522,7 +5577,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>176</v>
       </c>
@@ -5542,7 +5597,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>256</v>
       </c>
@@ -5562,7 +5617,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>219</v>
       </c>
@@ -5579,7 +5634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>210</v>
       </c>
@@ -5599,7 +5654,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>194</v>
       </c>
@@ -5619,7 +5674,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>199</v>
       </c>
@@ -5639,7 +5694,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>184</v>
       </c>
@@ -5659,7 +5714,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>216</v>
       </c>
@@ -5676,7 +5731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>183</v>
       </c>
@@ -5696,7 +5751,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>165</v>
       </c>
@@ -5713,7 +5768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>197</v>
       </c>
@@ -5733,7 +5788,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>215</v>
       </c>
